--- a/data/hotels_by_city/Houston/Houston_shard_616.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_616.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d226721-Reviews-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-Westchase.h81485.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531688079794&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=663b9dec-a24b-4ef8-931e-56aeb50de311&amp;mctc=9&amp;exp_dp=59.99&amp;exp_ts=1531688080320&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r512018149-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>226721</t>
+  </si>
+  <si>
+    <t>512018149</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>affordable stay</t>
+  </si>
+  <si>
+    <t>Transitioning to Houston, I had no place to live. The staff at the Studio 6 are some of the most pleasant and relatable people I've met thus far. A special shout out to Shine at the desk... she is so funny. She has given me many pointers and has been responsive to my needs. Her knowledge of Houston and New Orleans charm made my stay more pleasant considering my circumstances. Thank you!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r511566832-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511566832</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Business Conference</t>
+  </si>
+  <si>
+    <t>While on business, I stayed at this hotel. The customer service representative Shine was amazing, she was friendly, professional and went above to make or stay so pleasant. The entire front desk staff was very polite and helpful.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r510984208-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510984208</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Current Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a guest at Studio 6 in Westchase Houston. The GSR was very nice and friendly upon check-in. The young woman Shine was helpful with me getting Wifi set-up while accommodating more guest in the office. The room was clean and smelled nice. I would recommend breakfast since they don't offer it. Besides that my reservation was handled upon arrival in a fast pace and was welcoming. I would recommend this hotel for a quick weekend getaway close to Galleria area.Mr.Yelling </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r487210001-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487210001</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>Absolutely Terrible...In all my trips outside my home country, Studio 6 is the worst accommodation I've stayed.I wish I could rate this a '0 Star'.From the reservation I made which was for no reason cancelled before my arrival, to the ill mannered frontdesk personnel, the cleaner who cleans the room leaves d cooker dirty and the operations manager who sided with his crew not to change my bed sheets all through my over 2wks stay; their reason, I joined both beds in my room together. Where in the world is that done? And u say u'r a hospitality provider? Damn it!My reasons were i'v got an infant, and I and my wife don't wonna leave any open sides on d bed so he doesn't roll n fall off.My wife and I were fed up even before our due date.Been a budget/extended stay hotel isn't a reason for such poor representation of hospitality.TnxUfuomaMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Absolutely Terrible...In all my trips outside my home country, Studio 6 is the worst accommodation I've stayed.I wish I could rate this a '0 Star'.From the reservation I made which was for no reason cancelled before my arrival, to the ill mannered frontdesk personnel, the cleaner who cleans the room leaves d cooker dirty and the operations manager who sided with his crew not to change my bed sheets all through my over 2wks stay; their reason, I joined both beds in my room together. Where in the world is that done? And u say u'r a hospitality provider? Damn it!My reasons were i'v got an infant, and I and my wife don't wonna leave any open sides on d bed so he doesn't roll n fall off.My wife and I were fed up even before our due date.Been a budget/extended stay hotel isn't a reason for such poor representation of hospitality.TnxUfuomaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r472434022-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472434022</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Flea Bag Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I accidentally stopped at the Motel 6 down the street from this hotel and were glad that we had the wrong location because the place looked so sketchy with men loitering in the hallways.  When we showed up at the Studio 6, and checked in, we momentarily felt relief because the rooms  "looked" nicer.I was wearing shorts as I walked in and immediately felt something on my legs.  I had about 20 fleas on my legs!!!!  I brushed them off and more would jump on!!There is no way that housekeeping would not have noticed that the room was infested with FLEAS!Needless to say, we did NOT stay there and found a different Hotel chain to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>My husband and I accidentally stopped at the Motel 6 down the street from this hotel and were glad that we had the wrong location because the place looked so sketchy with men loitering in the hallways.  When we showed up at the Studio 6, and checked in, we momentarily felt relief because the rooms  "looked" nicer.I was wearing shorts as I walked in and immediately felt something on my legs.  I had about 20 fleas on my legs!!!!  I brushed them off and more would jump on!!There is no way that housekeeping would not have noticed that the room was infested with FLEAS!Needless to say, we did NOT stay there and found a different Hotel chain to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r470406616-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470406616</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Affordable with a Kitchenette</t>
+  </si>
+  <si>
+    <t>Studio 6 rooms are equipped with a kitchenettes and with low prices, that's an advantage.You could function very well like a you are at home. Very close to ihop restaurant so you could get good American breakfast if you don't feel like cooking. Quiet environment.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r412506002-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412506002</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>I want thank an employee name Roy who saw and met my little nephew and nieces the other day.the next day she brought us a box of outfits and toys for them.she is truly saint.May God bless her and the red roof inn.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r402092277-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402092277</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Great , friendly and convenient place for short/long term stay</t>
+  </si>
+  <si>
+    <t>Whosoever is reading this...This is a nice, comfortable and hospitable place to stay with a very efficient staff on hands.During my stay they were most helpful in meeting all my needs in a timely fashionThe location is absolutely perfect if you have to take any of the freeways or tollwaysThe management is serious about the qiality of tenants and it is very pleasant and quietThe staff....ranging from Kisoor Dayaram to Li and Tony at the front-desk, not to forget Omar, Courtney and James were kind and hospitableI give this place a 10/10 in  my opinion and would definitely recommend anybody to try it outI would definitely come back if I need a place in the futureThanksSwarna DuttaguptaMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Whosoever is reading this...This is a nice, comfortable and hospitable place to stay with a very efficient staff on hands.During my stay they were most helpful in meeting all my needs in a timely fashionThe location is absolutely perfect if you have to take any of the freeways or tollwaysThe management is serious about the qiality of tenants and it is very pleasant and quietThe staff....ranging from Kisoor Dayaram to Li and Tony at the front-desk, not to forget Omar, Courtney and James were kind and hospitableI give this place a 10/10 in  my opinion and would definitely recommend anybody to try it outI would definitely come back if I need a place in the futureThanksSwarna DuttaguptaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r383020401-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383020401</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Worst stay I've ever had</t>
+  </si>
+  <si>
+    <t>In any hotel is have ever stayed in this was the worst. I really don't know where to start. There is no free coffee,  they make you pay for the little packages that go into their machines. They try and reel you in to make you stay by telling you if you sign a tax exempt paper they give you the credit after 30 days. This property waited until it was time to give me my free days to fabricate a story as to why they would not longer let me stay. They are a scam, and have roaches. Lots of them. They also charge for wi-fi, and everything else that should come with your stay at a room. I had to beg someone to clean my room and it would be days before they would come. BTW don't bother calling on Sunday they don't rent out rooms and they show up anytime they want to after 12 on sundays.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>In any hotel is have ever stayed in this was the worst. I really don't know where to start. There is no free coffee,  they make you pay for the little packages that go into their machines. They try and reel you in to make you stay by telling you if you sign a tax exempt paper they give you the credit after 30 days. This property waited until it was time to give me my free days to fabricate a story as to why they would not longer let me stay. They are a scam, and have roaches. Lots of them. They also charge for wi-fi, and everything else that should come with your stay at a room. I had to beg someone to clean my room and it would be days before they would come. BTW don't bother calling on Sunday they don't rent out rooms and they show up anytime they want to after 12 on sundays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r363429463-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363429463</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>very clean</t>
+  </si>
+  <si>
+    <t>room was very clean, quiet and staff were very friendly, and the rooms has been recently renovated.This location is like an apartment complex, so the office closes at 8pm, but someone will assist you if there is an emergency. I had a pleasant stay and I recommend it for long stays.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r321653492-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321653492</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Roaches and smells beware!</t>
+  </si>
+  <si>
+    <t>Recently stayed here with my family of 4 including 2 kids. As soon as we walked in there was a nasty dog poop smell that almost made me throw up. Immediately called the front desk and to her credit she came up within half an hour and sprayed some antiseptic spray and cleaned out the air filter. Despite that the room still continued to smell really bad so we headed out to the nearest Walmart and bought some febreze and an air wick plug in. Took about 12 hours before the smell got better. Then we had to deal with the roaches and various other bugs that were never ending. The other issue that I have never in my life is the fact that they only clean the rooms once a week and replace the linens and towels once a week as well. If they cleaned the place more often I'm certain they could control their pest issue better. The place was pretty shady. People loitering in the hallways smoking and walking around in their underwear. I had no choice but to stay there as other hotels in the area were all booked and 3 times more expensive. Needless to say I will never stay there again and would never recommend anyone to stay there either. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Recently stayed here with my family of 4 including 2 kids. As soon as we walked in there was a nasty dog poop smell that almost made me throw up. Immediately called the front desk and to her credit she came up within half an hour and sprayed some antiseptic spray and cleaned out the air filter. Despite that the room still continued to smell really bad so we headed out to the nearest Walmart and bought some febreze and an air wick plug in. Took about 12 hours before the smell got better. Then we had to deal with the roaches and various other bugs that were never ending. The other issue that I have never in my life is the fact that they only clean the rooms once a week and replace the linens and towels once a week as well. If they cleaned the place more often I'm certain they could control their pest issue better. The place was pretty shady. People loitering in the hallways smoking and walking around in their underwear. I had no choice but to stay there as other hotels in the area were all booked and 3 times more expensive. Needless to say I will never stay there again and would never recommend anyone to stay there either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r258403353-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258403353</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Horrible!!!!!!</t>
+  </si>
+  <si>
+    <t>When you get locked out your room after the office has closed there is suppose to be an after hour contact person to assist in getting you into your room, that's what the sign says that's outside the office door. I waited 5 hours and I am still waiting for someone to pick up the phone or even open the office up and it is 20 mins after 12pm and no one is still not in the office.and the office suppose to open up at NOON!!!  Let me not forget my child is in the car with me &amp; it's raining and cold outside. I called guest services several times and they even can not get ahold of the property manager. Not only that, they have not changed the linen on my bed in a week and it's suppose to be changed once a week. I am very unhappy with this place!!!!! And there are 10 ppl waiting to check in and no one still is here to open up. MoreShow less</t>
+  </si>
+  <si>
+    <t>When you get locked out your room after the office has closed there is suppose to be an after hour contact person to assist in getting you into your room, that's what the sign says that's outside the office door. I waited 5 hours and I am still waiting for someone to pick up the phone or even open the office up and it is 20 mins after 12pm and no one is still not in the office.and the office suppose to open up at NOON!!!  Let me not forget my child is in the car with me &amp; it's raining and cold outside. I called guest services several times and they even can not get ahold of the property manager. Not only that, they have not changed the linen on my bed in a week and it's suppose to be changed once a week. I am very unhappy with this place!!!!! And there are 10 ppl waiting to check in and no one still is here to open up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r137667446-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137667446</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Roaches! Roaches! Roaches!</t>
+  </si>
+  <si>
+    <t>I thought when I left the hood, I left the roaches there too....not so! I purchased some roach baits to help with the infestation but it was to no avail. Awesome price for this room, but you may get charged extra for the roaches!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r135720766-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135720766</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Cockroaches Beware!</t>
+  </si>
+  <si>
+    <t>Having the dubious pleasure of staying at the Studio 6 in the westchase area of Houston, I didnt expect much to begin with from a place like this however, it was rather unxepected that I had to share my room with another family. There was myself and a family of ever expanding cockroaches partying in the bathroom and kitchen at night. This behaviour from insect families isnt acceptable and makes my skin crawl. Funny thing is as a Hotellier ourselves we are well aware that everywhere humans are bugs are there also, so its not unexpected but it was the numbers that surprised us. Looking at the property its little wonder as trash is evident and definatly smelly on the stairwells, just waiting for the rats to join in. People are leaving huge piles of cigarette buts around which again makes the place smell like an old ashtray.Accor group is a reputable hotel firm, but this Studio 6 is in need of serious attention if Accors reputation is to be maintained in the Houston area. We will be posting video online of the bug party.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Having the dubious pleasure of staying at the Studio 6 in the westchase area of Houston, I didnt expect much to begin with from a place like this however, it was rather unxepected that I had to share my room with another family. There was myself and a family of ever expanding cockroaches partying in the bathroom and kitchen at night. This behaviour from insect families isnt acceptable and makes my skin crawl. Funny thing is as a Hotellier ourselves we are well aware that everywhere humans are bugs are there also, so its not unexpected but it was the numbers that surprised us. Looking at the property its little wonder as trash is evident and definatly smelly on the stairwells, just waiting for the rats to join in. People are leaving huge piles of cigarette buts around which again makes the place smell like an old ashtray.Accor group is a reputable hotel firm, but this Studio 6 is in need of serious attention if Accors reputation is to be maintained in the Houston area. We will be posting video online of the bug party.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r116771576-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116771576</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Acceptable, Room was clean</t>
+  </si>
+  <si>
+    <t>For the price that we paid, we were satisfied. Other hotels in the area charged a lot more while providing most of the same amenities. Although this hotel isn't anything impressive by any means, it also isn't a bad place. If you're on a budget, this is a reliable place to stay.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r32070864-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32070864</t>
+  </si>
+  <si>
+    <t>06/10/2009</t>
+  </si>
+  <si>
+    <t>Bad Experience-Never Again</t>
+  </si>
+  <si>
+    <t>We made reservations via telephone to stay one night.  We receive a room price and confirmation number.  When we arrived the price suddently change, even thought we had out confirmation number.  The manager would not give the price quoted on the phone.  We decided to stay anyway, whats a few bucks right?  When we received our room the room was dirty from a former or current occupant. We informed the desk and was given another room upstairs.  The room smelled strong of cigarette smoke, We had ask for a non-smoking room.  We then proceeded to the front desk and demanded out money back and checked out.  Three times your out.  I am in business myself and when our company quotes a price we stick with it, we don't change before or after the product is delivered.  I feel that this Motel 6 did not concern themselves as to if they kept a paying customer or not.  I will never stay at another Motel 6, I will sleep in my car first.  So Mr. Bodell don't leave the light on for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We made reservations via telephone to stay one night.  We receive a room price and confirmation number.  When we arrived the price suddently change, even thought we had out confirmation number.  The manager would not give the price quoted on the phone.  We decided to stay anyway, whats a few bucks right?  When we received our room the room was dirty from a former or current occupant. We informed the desk and was given another room upstairs.  The room smelled strong of cigarette smoke, We had ask for a non-smoking room.  We then proceeded to the front desk and demanded out money back and checked out.  Three times your out.  I am in business myself and when our company quotes a price we stick with it, we don't change before or after the product is delivered.  I feel that this Motel 6 did not concern themselves as to if they kept a paying customer or not.  I will never stay at another Motel 6, I will sleep in my car first.  So Mr. Bodell don't leave the light on for us.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +868,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +900,1063 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_616.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_616.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r605462499-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>226721</t>
+  </si>
+  <si>
+    <t>605462499</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Horrible. Didn’t even stay here.</t>
+  </si>
+  <si>
+    <t>Called to get pricing and the woman on the phone was extremely rude to us. I asked for a double room and she kept screaming about if I had a reservation and I said no I needed pricing. She yelled and said if I didn’t have a reservation she wouldn’t help me. I will not be recommending this place to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Studio 6 Houston - Westchase, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Called to get pricing and the woman on the phone was extremely rude to us. I asked for a double room and she kept screaming about if I had a reservation and I said no I needed pricing. She yelled and said if I didn’t have a reservation she wouldn’t help me. I will not be recommending this place to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r543850509-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543850509</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Good but Affordable </t>
+  </si>
+  <si>
+    <t>I spent a one night in there. The bathroom door had a problem and you can't close it. But the price was good and the bed shield wasn't good either. Anyway it was only one night so we were pleased with price.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r512018149-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>226721</t>
-  </si>
-  <si>
     <t>512018149</t>
   </si>
   <si>
@@ -213,7 +264,34 @@
     <t xml:space="preserve">I'm a guest at Studio 6 in Westchase Houston. The GSR was very nice and friendly upon check-in. The young woman Shine was helpful with me getting Wifi set-up while accommodating more guest in the office. The room was clean and smelled nice. I would recommend breakfast since they don't offer it. Besides that my reservation was handled upon arrival in a fast pace and was welcoming. I would recommend this hotel for a quick weekend getaway close to Galleria area.Mr.Yelling </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r510921733-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510921733</t>
+  </si>
+  <si>
+    <t>Awesome customer service</t>
+  </si>
+  <si>
+    <t>We have been here for a while and I love it. The GSR Shine and the other staff has always made us feel welcome. I have not had any problems in fact, it has been very quiet and clean. Great room amenities and close to everything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r508560408-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508560408</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gsr shine was really helpful at the front desk upon check in. Positive attitude. Rooms are very comfortableThe maids are very clean the manager even had a great attitude But my favorite staff member is SHINE she  was the most helpful...no disrespect to the others lol </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r487210001-Studio_6_Houston_Westchase-Houston_Texas.html</t>
@@ -276,6 +354,45 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r458397936-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458397936</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>poor customer service</t>
+  </si>
+  <si>
+    <t>Low budget model for longer stays.   Suites very small with only the minimum of kitchen  accutrements - no soap, paper towels or napkins.  Front desk rude.  $5.00 charge/device for internet.  Didn't feel safe.  Beds comfortable.  Close to bus route.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r418576298-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418576298</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a good experience </t>
+  </si>
+  <si>
+    <t>I had to stay at this motel because the air conditioning was out at my house and I needed a place to stay for one night before I could get a repair man. I chose this hotel because it was pet friendly and affordable. I assumed it was a place that professionals might stay for extended work stays... Boy was I wrong. This appears to be more of a flophouse for degenerates who can't get an apartment, so they stay here instead. The room was non smoking, but smelled musty and smoky. The air conditioning system was not the greatest and was either freezing cold or not cold enough, and let off a smell of Freon. The bed spread had a weird stain on it and the bath tub had pubic hairs in it, so it is clear that the housekeeping is awful. The bathroom floor was dirty, as well, and the toilet didn't flush very well. There was a lot of noise from the people outside and the characters staying there looked pretty sketchy. This is definitely not a place to go if you are a female on your own, that's for sure. If they hadn't already charged my credit card when I got there, I would have high tailed it out of there. The only positive I can think of is the ladies at the front desk were mind and professional. Considering they allow people to pay in...I had to stay at this motel because the air conditioning was out at my house and I needed a place to stay for one night before I could get a repair man. I chose this hotel because it was pet friendly and affordable. I assumed it was a place that professionals might stay for extended work stays... Boy was I wrong. This appears to be more of a flophouse for degenerates who can't get an apartment, so they stay here instead. The room was non smoking, but smelled musty and smoky. The air conditioning system was not the greatest and was either freezing cold or not cold enough, and let off a smell of Freon. The bed spread had a weird stain on it and the bath tub had pubic hairs in it, so it is clear that the housekeeping is awful. The bathroom floor was dirty, as well, and the toilet didn't flush very well. There was a lot of noise from the people outside and the characters staying there looked pretty sketchy. This is definitely not a place to go if you are a female on your own, that's for sure. If they hadn't already charged my credit card when I got there, I would have high tailed it out of there. The only positive I can think of is the ladies at the front desk were mind and professional. Considering they allow people to pay in cash, though, this obviously attracts the lowest common denominator of society. Stay away from this hotel at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I had to stay at this motel because the air conditioning was out at my house and I needed a place to stay for one night before I could get a repair man. I chose this hotel because it was pet friendly and affordable. I assumed it was a place that professionals might stay for extended work stays... Boy was I wrong. This appears to be more of a flophouse for degenerates who can't get an apartment, so they stay here instead. The room was non smoking, but smelled musty and smoky. The air conditioning system was not the greatest and was either freezing cold or not cold enough, and let off a smell of Freon. The bed spread had a weird stain on it and the bath tub had pubic hairs in it, so it is clear that the housekeeping is awful. The bathroom floor was dirty, as well, and the toilet didn't flush very well. There was a lot of noise from the people outside and the characters staying there looked pretty sketchy. This is definitely not a place to go if you are a female on your own, that's for sure. If they hadn't already charged my credit card when I got there, I would have high tailed it out of there. The only positive I can think of is the ladies at the front desk were mind and professional. Considering they allow people to pay in...I had to stay at this motel because the air conditioning was out at my house and I needed a place to stay for one night before I could get a repair man. I chose this hotel because it was pet friendly and affordable. I assumed it was a place that professionals might stay for extended work stays... Boy was I wrong. This appears to be more of a flophouse for degenerates who can't get an apartment, so they stay here instead. The room was non smoking, but smelled musty and smoky. The air conditioning system was not the greatest and was either freezing cold or not cold enough, and let off a smell of Freon. The bed spread had a weird stain on it and the bath tub had pubic hairs in it, so it is clear that the housekeeping is awful. The bathroom floor was dirty, as well, and the toilet didn't flush very well. There was a lot of noise from the people outside and the characters staying there looked pretty sketchy. This is definitely not a place to go if you are a female on your own, that's for sure. If they hadn't already charged my credit card when I got there, I would have high tailed it out of there. The only positive I can think of is the ladies at the front desk were mind and professional. Considering they allow people to pay in cash, though, this obviously attracts the lowest common denominator of society. Stay away from this hotel at all costs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r412506002-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,6 +453,42 @@
     <t>In any hotel is have ever stayed in this was the worst. I really don't know where to start. There is no free coffee,  they make you pay for the little packages that go into their machines. They try and reel you in to make you stay by telling you if you sign a tax exempt paper they give you the credit after 30 days. This property waited until it was time to give me my free days to fabricate a story as to why they would not longer let me stay. They are a scam, and have roaches. Lots of them. They also charge for wi-fi, and everything else that should come with your stay at a room. I had to beg someone to clean my room and it would be days before they would come. BTW don't bother calling on Sunday they don't rent out rooms and they show up anytime they want to after 12 on sundays.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r373883100-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373883100</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>This series of motels and studios were nerver been disappointing to me. I stayed in westchase studio 6. It was very welcoming Its position was perfect, near to Target and walmart as a family needs. surrounded by perfect garden which i used to have my morning coffee everyday. However, the room is smaller than expected, but was convenient to me and my spouse. The kitchen is perfect , supplied by every needed equipment. The room service is good. The room is clean with no seen bugs or insects. The receptionists were talking strictly but helpful and much copoerative.I think its price is average compared to other surrounding motels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r363944817-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363944817</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Prior to us staying there we were at Extended Stay which we thought was going to be a great experience but it turned out to be the worst experience I've ever had! After being treated so rude we decided to try Studio 6 and it was one of the best experiences to my surprise. First of all management as well as staff was excellent accommodate us to the fullest. Really made us fill welcomed and the hospitality was really great we were so pleased with our stay that I wanted to write a great review giving them a thumbs up. Before we left I thanked them and asked them not to change how they were managing their property because they truly made us feel at home and we were there two months. And yes I would recommend this location as well as stay there again!!! KD always walked the property and showing interest in the residence making sure everything was ok. When anything went wrong he was on it asap. I appreciated how he made everyone fill welcome!!! And Toni always greeted every one with kindness and if we needed anything she was always on it. I must say for the most part the whole staff was great even housekeeping and maintenance. believe me I would never have giving such a great review if the service hadn't been so great.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Prior to us staying there we were at Extended Stay which we thought was going to be a great experience but it turned out to be the worst experience I've ever had! After being treated so rude we decided to try Studio 6 and it was one of the best experiences to my surprise. First of all management as well as staff was excellent accommodate us to the fullest. Really made us fill welcomed and the hospitality was really great we were so pleased with our stay that I wanted to write a great review giving them a thumbs up. Before we left I thanked them and asked them not to change how they were managing their property because they truly made us feel at home and we were there two months. And yes I would recommend this location as well as stay there again!!! KD always walked the property and showing interest in the residence making sure everything was ok. When anything went wrong he was on it asap. I appreciated how he made everyone fill welcome!!! And Toni always greeted every one with kindness and if we needed anything she was always on it. I must say for the most part the whole staff was great even housekeeping and maintenance. believe me I would never have giving such a great review if the service hadn't been so great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r363429463-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,9 +504,6 @@
     <t>room was very clean, quiet and staff were very friendly, and the rooms has been recently renovated.This location is like an apartment complex, so the office closes at 8pm, but someone will assist you if there is an emergency. I had a pleasant stay and I recommend it for long stays.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r321653492-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -393,6 +543,42 @@
     <t>When you get locked out your room after the office has closed there is suppose to be an after hour contact person to assist in getting you into your room, that's what the sign says that's outside the office door. I waited 5 hours and I am still waiting for someone to pick up the phone or even open the office up and it is 20 mins after 12pm and no one is still not in the office.and the office suppose to open up at NOON!!!  Let me not forget my child is in the car with me &amp; it's raining and cold outside. I called guest services several times and they even can not get ahold of the property manager. Not only that, they have not changed the linen on my bed in a week and it's suppose to be changed once a week. I am very unhappy with this place!!!!! And there are 10 ppl waiting to check in and no one still is here to open up. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r238242886-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238242886</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>decent price</t>
+  </si>
+  <si>
+    <t>decent price, also with the recent upgrade, rooms are ok. for a budget traveler, its a cool deal. location was close to my course venue, which was an added bonus, small kitchen comes in handy too for preparing small quick meals</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r201100793-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201100793</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Not sure if this is right for everyone ... professionals do not stay here!</t>
+  </si>
+  <si>
+    <t>Room is fairly small; yet, fully equipped for long term stay. management care only about $$$ and neglect their long time staying residents as well as timid to enforce hotel policies! Do not stay here unless you must ... rude, noisy and ignorant neighbors that cannot handle their alcohol looking for conflict!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r137667446-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,9 +597,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r135720766-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,6 +636,48 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r96884545-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96884545</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>Great value, good service, GREAT SECURITY in a rough area.</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel a while back and was not that impressed. It was my first time at an extended stay property.  Then I tried the Sun Suites next door for one week. What a world of difference!The people in the office at Studio 6 are friendly and helpful. They really try to keep the riff raff out, unlike the places on either side of them.  There are not people loitering around outside selling drugs at all hours and there is security that actually walks the property and questions anyone they dont recognize or unfamiliar vehicles.  They walk around writing down license plates too. Also, there is a fence around the property which helps a great deal. Its a great location and a great value. It's actually the same prices as the places next door on either side but you dont have all of the illegal activity and scary people hanging around outside day and night. In this price range (199/wk queen) , this seems to be the best place to stay on this strip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel a while back and was not that impressed. It was my first time at an extended stay property.  Then I tried the Sun Suites next door for one week. What a world of difference!The people in the office at Studio 6 are friendly and helpful. They really try to keep the riff raff out, unlike the places on either side of them.  There are not people loitering around outside selling drugs at all hours and there is security that actually walks the property and questions anyone they dont recognize or unfamiliar vehicles.  They walk around writing down license plates too. Also, there is a fence around the property which helps a great deal. Its a great location and a great value. It's actually the same prices as the places next door on either side but you dont have all of the illegal activity and scary people hanging around outside day and night. In this price range (199/wk queen) , this seems to be the best place to stay on this strip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r83470640-Studio_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83470640</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>TERRIBLE EXPERIENCE WITH FRONTDESK STAFF</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel any time am in Houston since 2002. I am a faithful customer to the hotel and I have introduced so many of my oil industry colleagues to the hotel. But when we arrived the last time, we were met with a set of terribly rude, discourteous and extremely customer-unfriendly frontdesk personnel. I had made a reservation two month prior, but we were assigned a room which I did not like. And I dared to say so;  the front desk staff retorted, 'that is what I have'.Throughout our 4 week-stay, I was always afriad to approach the reception for any thing, for fear of being shown discourtesy. The  front desk staff were behaving as if they have just obtained a theoretical doctorate degree in rudness, discourtesy and unfriendliness and they must put it to practice as fast and as much as possible. If the front desk personnel do not change their style and manners,  the hotel will not only loose old customers, but it will not be able to atttract and maintain new customers. I can no longer recommend the hotel to any body, so I would not blamed, but I will continue to patronise the please with hope that Management of the hotel will do some thing about it with to improving on customer relationship. frontdesk staff are the mirror and the gateway of any corporate body the world - customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I have been staying in this hotel any time am in Houston since 2002. I am a faithful customer to the hotel and I have introduced so many of my oil industry colleagues to the hotel. But when we arrived the last time, we were met with a set of terribly rude, discourteous and extremely customer-unfriendly frontdesk personnel. I had made a reservation two month prior, but we were assigned a room which I did not like. And I dared to say so;  the front desk staff retorted, 'that is what I have'.Throughout our 4 week-stay, I was always afriad to approach the reception for any thing, for fear of being shown discourtesy. The  front desk staff were behaving as if they have just obtained a theoretical doctorate degree in rudness, discourtesy and unfriendliness and they must put it to practice as fast and as much as possible. If the front desk personnel do not change their style and manners,  the hotel will not only loose old customers, but it will not be able to atttract and maintain new customers. I can no longer recommend the hotel to any body, so I would not blamed, but I will continue to patronise the please with hope that Management of the hotel will do some thing about it with to improving on customer relationship. frontdesk staff are the mirror and the gateway of any corporate body the world - customers.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d226721-r32070864-Studio_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -469,9 +694,6 @@
   </si>
   <si>
     <t>June 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>We made reservations via telephone to stay one night.  We receive a room price and confirmation number.  When we arrived the price suddently change, even thought we had out confirmation number.  The manager would not give the price quoted on the phone.  We decided to stay anyway, whats a few bucks right?  When we received our room the room was dirty from a former or current occupant. We informed the desk and was given another room upstairs.  The room smelled strong of cigarette smoke, We had ask for a non-smoking room.  We then proceeded to the front desk and demanded out money back and checked out.  Three times your out.  I am in business myself and when our company quotes a price we stick with it, we don't change before or after the product is delivered.  I feel that this Motel 6 did not concern themselves as to if they kept a paying customer or not.  I will never stay at another Motel 6, I will sleep in my car first.  So Mr. Bodell don't leave the light on for us.More</t>
@@ -1009,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1017,25 +1239,23 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1051,7 +1271,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1060,25 +1280,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1092,7 +1312,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1108,7 +1328,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1117,39 +1337,45 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1165,7 +1391,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1174,25 +1400,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1206,7 +1432,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1222,7 +1448,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1231,45 +1457,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1285,7 +1505,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1294,43 +1514,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1346,7 +1562,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1355,25 +1571,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1387,7 +1603,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1424,26 +1640,20 @@
         <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1493,12 +1703,12 @@
         <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1550,25 +1760,23 @@
         <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1619,21 +1827,25 @@
         <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1649,7 +1861,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1658,38 +1870,32 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -1733,30 +1939,20 @@
         <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
         <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -1779,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1788,41 +1984,37 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
         <v>133</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>134</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>135</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>136</v>
       </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>137</v>
-      </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1830,7 +2022,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +2038,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1855,37 +2047,37 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
         <v>140</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>141</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>142</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>143</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1893,7 +2085,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -1930,33 +2122,793 @@
         <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
         <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31360</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
